--- a/Signal Detection (SANA_PATEL_AU2220257)/138018_Signal Detection_2024-09-17_13h05.23.570.xlsx
+++ b/Signal Detection (SANA_PATEL_AU2220257)/138018_Signal Detection_2024-09-17_13h05.23.570.xlsx
@@ -5,22 +5,34 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91635\Desktop\Lab In Psych\Signal Detection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91635\Desktop\Lab In Psych\Signal Detection (SANA_PATEL_AU2220257)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8E26623-2737-4A05-93AC-FA3C9F567B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7FAC56-B685-466B-9829-4F4D6CBDAA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2FF1FA24-6EAC-4136-AA6C-5CF6BC0C8947}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{2FF1FA24-6EAC-4136-AA6C-5CF6BC0C8947}"/>
   </bookViews>
   <sheets>
     <sheet name="138018_Signal Detection_2024-09" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="23">
   <si>
     <t>trials.thisRepN</t>
   </si>
@@ -53,6 +65,42 @@
   </si>
   <si>
     <t>cr</t>
+  </si>
+  <si>
+    <t>respond no</t>
+  </si>
+  <si>
+    <t>signal present (hit)</t>
+  </si>
+  <si>
+    <t>signal present c</t>
+  </si>
+  <si>
+    <t>corect rejection</t>
+  </si>
+  <si>
+    <t>respond yes</t>
+  </si>
+  <si>
+    <t>FALSE alarm</t>
+  </si>
+  <si>
+    <t>signal presengt</t>
+  </si>
+  <si>
+    <t>signal absent</t>
+  </si>
+  <si>
+    <t>prop hit=hit/hit+miss</t>
+  </si>
+  <si>
+    <t>prop Fa=FA/FA+CORR REJECTION</t>
+  </si>
+  <si>
+    <t>D PRIME=z(prop hit)-z(prop fa)</t>
+  </si>
+  <si>
+    <t>c=-z(prop hit)+z(prop fa)/2</t>
   </si>
 </sst>
 </file>
@@ -894,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F27D947-F69A-41AE-B15B-FB0951E91738}">
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B92" workbookViewId="0">
-      <selection activeCell="N88" sqref="N88"/>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="K102" sqref="K102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2940,6 +2988,135 @@
         <v>1</v>
       </c>
     </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="G102">
+        <f>SUM(G2:G101)</f>
+        <v>40</v>
+      </c>
+      <c r="H102">
+        <f>SUM(H2:H101)</f>
+        <v>6</v>
+      </c>
+      <c r="I102">
+        <f>SUM(I2:I101)</f>
+        <v>33</v>
+      </c>
+      <c r="J102">
+        <f>SUM(J2:J101)</f>
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72C149D-1F5B-42C3-BCB9-A7D575535D73}">
+  <dimension ref="B4:M12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="23.7265625" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5">
+        <f>C11/(C11+D11)</f>
+        <v>0.86956521739130432</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6">
+        <f>C12/(C12+D12)</f>
+        <v>0.61111111111111116</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8">
+        <f>NORMSINV(M5)-NORMSINV(M6)</f>
+        <v>0.84212208450613102</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9">
+        <f>NORMSINV(M5)+NORMSINV(M6)/2</f>
+        <v>1.2654463050998934</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>33</v>
+      </c>
+      <c r="D12">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
